--- a/Otorgamiento/Mapeos_CLS_Otorgamiento_V1.xlsx
+++ b/Otorgamiento/Mapeos_CLS_Otorgamiento_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="435" windowWidth="9225" windowHeight="4590" tabRatio="583" firstSheet="43" activeTab="46"/>
+    <workbookView xWindow="285" yWindow="435" windowWidth="9225" windowHeight="4590" tabRatio="583" firstSheet="24" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="BAS_ACTIVIDAD_ECONOMICA" sheetId="8" r:id="rId1"/>
@@ -8436,7 +8436,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6365" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6331" uniqueCount="442">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -10912,6 +10912,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -10969,17 +10980,6 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -11460,7 +11460,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11508,30 +11508,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -11542,13 +11542,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -11559,13 +11559,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -11580,29 +11580,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -12017,22 +12017,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>23</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
@@ -12302,30 +12302,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -12336,13 +12336,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -12353,13 +12353,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -12374,29 +12374,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -12811,22 +12811,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>17</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -13020,30 +13020,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -13054,13 +13054,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -13071,13 +13071,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -13092,29 +13092,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -13529,22 +13529,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>17</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -13738,30 +13738,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -13772,13 +13772,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -13789,13 +13789,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -13810,29 +13810,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14247,22 +14247,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>19</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
@@ -14480,30 +14480,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -14514,13 +14514,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -14531,13 +14531,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -14552,29 +14552,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14989,22 +14989,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>19</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
@@ -15222,30 +15222,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -15256,13 +15256,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -15273,13 +15273,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -15294,29 +15294,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15718,22 +15718,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>16</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -15927,30 +15927,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -15961,13 +15961,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -15978,13 +15978,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -15999,29 +15999,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16438,22 +16438,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>17</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -16647,30 +16647,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -16681,13 +16681,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -16698,13 +16698,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -16719,29 +16719,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -17158,22 +17158,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>22</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
@@ -17431,30 +17431,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -17465,13 +17465,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -17482,13 +17482,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -17503,29 +17503,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -17942,22 +17942,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>18</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="59">
@@ -18165,30 +18165,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -18199,13 +18199,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -18216,13 +18216,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -18237,29 +18237,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18638,22 +18638,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>14</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -18847,30 +18847,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -18881,13 +18881,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -18898,13 +18898,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -18919,29 +18919,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -19358,22 +19358,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>19</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
@@ -19591,30 +19591,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -19625,13 +19625,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -19642,13 +19642,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -19663,29 +19663,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -20090,22 +20090,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>16</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -20299,30 +20299,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>346</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -20333,13 +20333,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -20350,13 +20350,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -20371,29 +20371,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -20796,22 +20796,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>16</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -21005,30 +21005,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -21039,13 +21039,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -21056,13 +21056,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -21077,29 +21077,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -21502,22 +21502,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>16</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -21711,30 +21711,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -21745,13 +21745,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -21762,13 +21762,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -21783,29 +21783,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -22208,22 +22208,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>16</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -22417,30 +22417,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -22451,13 +22451,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -22468,13 +22468,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -22489,29 +22489,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -22926,22 +22926,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>17</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -23135,30 +23135,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>222</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -23169,13 +23169,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -23186,13 +23186,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -23207,29 +23207,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -23632,22 +23632,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>16</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -23841,30 +23841,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -23875,13 +23875,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -23892,13 +23892,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -23913,29 +23913,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -24352,22 +24352,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>19</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
@@ -24551,8 +24551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:R17"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24589,30 +24589,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>234</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -24623,13 +24623,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -24640,13 +24640,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -24661,29 +24661,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -25074,19 +25074,7 @@
       </c>
       <c r="R16" s="36"/>
     </row>
-    <row r="17" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="57">
-        <v>9</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="86"/>
+    <row r="17" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H17" s="45"/>
       <c r="I17" s="43">
         <v>25</v>
@@ -25098,38 +25086,24 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>24</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="57">
-        <v>10</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="52">
-        <v>50</v>
-      </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="58"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
+    </row>
+    <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
       <c r="M18" s="75">
         <v>25</v>
@@ -25148,21 +25122,7 @@
       </c>
       <c r="R18" s="77"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="57">
-        <v>11</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="52">
-        <v>20</v>
-      </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="58"/>
+    <row r="19" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L19" s="44"/>
       <c r="M19" s="47">
         <v>7</v>
@@ -25181,21 +25141,7 @@
       </c>
       <c r="R19" s="36"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="57">
-        <v>12</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="52">
-        <v>50</v>
-      </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="58"/>
+    <row r="20" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L20" s="44"/>
       <c r="M20" s="47">
         <v>3</v>
@@ -25214,21 +25160,7 @@
       </c>
       <c r="R20" s="34"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="57">
-        <v>13</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="52">
-        <v>5</v>
-      </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="58"/>
+    <row r="21" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L21" s="44"/>
       <c r="M21" s="42">
         <v>5</v>
@@ -25247,19 +25179,7 @@
       </c>
       <c r="R21" s="34"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="57">
-        <v>14</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="58"/>
+    <row r="22" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L22" s="44"/>
       <c r="M22" s="42">
         <v>23</v>
@@ -25278,19 +25198,7 @@
       </c>
       <c r="R22" s="34"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="57">
-        <v>15</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="58"/>
+    <row r="23" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L23" s="44"/>
       <c r="M23" s="42">
         <v>2</v>
@@ -25309,19 +25217,7 @@
       </c>
       <c r="R23" s="34"/>
     </row>
-    <row r="24" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="59">
-        <v>16</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="62"/>
+    <row r="24" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L24" s="45"/>
       <c r="M24" s="43">
         <v>4</v>
@@ -25399,30 +25295,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>238</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -25433,13 +25329,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -25450,13 +25346,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -25471,29 +25367,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -25910,22 +25806,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>24</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
@@ -26165,10 +26061,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R26"/>
+  <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:R17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26205,30 +26101,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -26239,13 +26135,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -26256,13 +26152,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -26277,29 +26173,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -26714,36 +26610,24 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>26</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="57">
-        <v>10</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="58"/>
       <c r="L18" s="44"/>
       <c r="M18" s="75">
         <v>27</v>
@@ -26763,20 +26647,6 @@
       <c r="R18" s="77"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="57">
-        <v>11</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="52">
-        <v>100</v>
-      </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="58"/>
       <c r="L19" s="44"/>
       <c r="M19" s="47">
         <v>7</v>
@@ -26796,20 +26666,6 @@
       <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="57">
-        <v>12</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="52">
-        <v>20</v>
-      </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="58"/>
       <c r="L20" s="44"/>
       <c r="M20" s="47">
         <v>3</v>
@@ -26829,20 +26685,6 @@
       <c r="R20" s="34"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="57">
-        <v>13</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="52">
-        <v>255</v>
-      </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="58"/>
       <c r="L21" s="44"/>
       <c r="M21" s="42">
         <v>5</v>
@@ -26862,20 +26704,6 @@
       <c r="R21" s="34"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="57">
-        <v>14</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="52">
-        <v>5</v>
-      </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="58"/>
       <c r="L22" s="44"/>
       <c r="M22" s="42">
         <v>25</v>
@@ -26895,18 +26723,6 @@
       <c r="R22" s="34"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="57">
-        <v>15</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="58"/>
       <c r="L23" s="44"/>
       <c r="M23" s="42">
         <v>2</v>
@@ -26926,18 +26742,6 @@
       <c r="R23" s="34"/>
     </row>
     <row r="24" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="57">
-        <v>16</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="58"/>
       <c r="L24" s="45"/>
       <c r="M24" s="43">
         <v>4</v>
@@ -26955,34 +26759,6 @@
         <v>21</v>
       </c>
       <c r="R24" s="35"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="57">
-        <v>17</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="58"/>
-    </row>
-    <row r="26" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="59">
-        <v>18</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -27043,30 +26819,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -27077,13 +26853,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -27094,13 +26870,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -27115,29 +26891,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -27554,22 +27330,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>18</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="59">
@@ -27775,30 +27551,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -27809,13 +27585,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -27826,13 +27602,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -27847,29 +27623,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -28284,22 +28060,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>18</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="59">
@@ -28505,30 +28281,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -28539,13 +28315,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -28556,13 +28332,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -28577,29 +28353,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -29014,22 +28790,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>19</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
@@ -29249,30 +29025,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>267</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -29283,13 +29059,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -29300,13 +29076,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -29321,29 +29097,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -29758,22 +29534,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="131">
+      <c r="M17" s="112">
         <v>18</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="59">
@@ -29979,30 +29755,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>275</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -30013,13 +29789,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -30030,13 +29806,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -30051,29 +29827,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -30462,22 +30238,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="44"/>
-      <c r="M17" s="131">
+      <c r="M17" s="112">
         <v>15</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -30671,30 +30447,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>281</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -30705,13 +30481,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -30722,13 +30498,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -30743,29 +30519,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -31168,22 +30944,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="131">
+      <c r="M17" s="112">
         <v>16</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -31377,30 +31153,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>286</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>281</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -31411,13 +31187,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -31428,13 +31204,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -31449,29 +31225,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -31874,22 +31650,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="131">
+      <c r="M17" s="112">
         <v>16</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -32083,30 +31859,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>290</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>281</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -32117,13 +31893,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -32134,13 +31910,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -32155,29 +31931,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -32594,22 +32370,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="131">
+      <c r="M17" s="112">
         <v>17</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -32803,30 +32579,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>295</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>296</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -32837,13 +32613,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -32854,13 +32630,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -32875,29 +32651,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -33300,22 +33076,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="131">
+      <c r="M17" s="112">
         <v>16</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -33509,30 +33285,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>301</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>302</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -33543,13 +33319,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -33560,13 +33336,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -33581,29 +33357,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -34020,22 +33796,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="131">
+      <c r="M17" s="112">
         <v>17</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -34229,30 +34005,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>307</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>313</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -34263,13 +34039,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -34280,13 +34056,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -34301,29 +34077,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -34738,22 +34514,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="131">
+      <c r="M17" s="112">
         <v>18</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="59">
@@ -34959,30 +34735,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>321</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -34993,13 +34769,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -35010,13 +34786,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -35031,29 +34807,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -35416,22 +35192,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="131">
+      <c r="M17" s="112">
         <v>13</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -35625,30 +35401,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -35659,13 +35435,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -35676,13 +35452,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -35697,29 +35473,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -36122,22 +35898,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>16</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -36331,30 +36107,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>325</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>330</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -36365,13 +36141,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -36382,13 +36158,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -36403,29 +36179,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -36800,22 +36576,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="131">
+      <c r="M17" s="112">
         <v>14</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -37009,30 +36785,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>334</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>330</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -37043,13 +36819,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -37060,13 +36836,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -37081,29 +36857,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -37506,22 +37282,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="131">
+      <c r="M17" s="112">
         <v>16</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -37715,30 +37491,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>340</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>341</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -37749,13 +37525,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -37766,13 +37542,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -37787,29 +37563,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -38212,22 +37988,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="131">
+      <c r="M17" s="112">
         <v>16</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -38421,30 +38197,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>355</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>356</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -38455,13 +38231,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -38472,13 +38248,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -38493,29 +38269,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -38936,22 +38712,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="131">
+      <c r="M17" s="112">
         <v>32</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
@@ -39367,30 +39143,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>405</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>416</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -39401,13 +39177,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -39418,13 +39194,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -39439,29 +39215,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -39872,22 +39648,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="131">
+      <c r="M17" s="112">
         <v>33</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="95">
@@ -40315,30 +40091,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>410</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>415</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -40349,13 +40125,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -40366,13 +40142,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -40387,29 +40163,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -40824,22 +40600,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="44"/>
-      <c r="M17" s="131">
+      <c r="M17" s="112">
         <v>17</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H18" s="45"/>
@@ -41043,30 +40819,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>413</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>414</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -41077,13 +40853,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -41094,13 +40870,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -41115,29 +40891,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -41548,22 +41324,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="44"/>
-      <c r="M17" s="131">
+      <c r="M17" s="112">
         <v>19</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="95">
@@ -41755,8 +41531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:R17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41793,30 +41569,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>424</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>414</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -41827,13 +41603,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -41844,13 +41620,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -41865,29 +41641,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -42298,22 +42074,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="44"/>
-      <c r="M17" s="131">
+      <c r="M17" s="112">
         <v>30</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="95">
@@ -42695,30 +42471,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -42729,13 +42505,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -42746,13 +42522,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -42767,29 +42543,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -43204,22 +42980,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>17</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -43413,30 +43189,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -43447,13 +43223,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -43464,13 +43240,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -43485,29 +43261,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -43910,22 +43686,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>16</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -44119,30 +43895,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -44153,13 +43929,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -44170,13 +43946,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -44191,29 +43967,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -44628,22 +44404,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>22</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
@@ -44897,30 +44673,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -44931,13 +44707,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -44948,13 +44724,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -44969,29 +44745,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -45406,22 +45182,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>18</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="59">
@@ -45627,30 +45403,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="125"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -45661,13 +45437,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="126"/>
+      <c r="H4" s="107"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -45678,13 +45454,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -45699,29 +45475,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -46136,22 +45912,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="128">
+      <c r="M17" s="109">
         <v>17</v>
       </c>
-      <c r="N17" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="129" t="s">
+      <c r="N17" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>

--- a/Otorgamiento/Mapeos_CLS_Otorgamiento_V1.xlsx
+++ b/Otorgamiento/Mapeos_CLS_Otorgamiento_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="435" windowWidth="9225" windowHeight="4590" tabRatio="583" firstSheet="24" activeTab="27"/>
+    <workbookView xWindow="285" yWindow="435" windowWidth="9225" windowHeight="4590" tabRatio="583" firstSheet="43" activeTab="46"/>
   </bookViews>
   <sheets>
     <sheet name="BAS_ACTIVIDAD_ECONOMICA" sheetId="8" r:id="rId1"/>
@@ -8436,7 +8436,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6331" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6365" uniqueCount="442">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -10912,17 +10912,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -10980,6 +10969,17 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -11460,7 +11460,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11508,30 +11508,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -11542,13 +11542,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -11559,13 +11559,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -11580,29 +11580,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -12017,22 +12017,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>23</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
@@ -12302,30 +12302,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -12336,13 +12336,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -12353,13 +12353,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -12374,29 +12374,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -12811,22 +12811,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>17</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -13020,30 +13020,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -13054,13 +13054,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -13071,13 +13071,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -13092,29 +13092,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -13529,22 +13529,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>17</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -13738,30 +13738,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -13772,13 +13772,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -13789,13 +13789,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -13810,29 +13810,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14247,22 +14247,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>19</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
@@ -14480,30 +14480,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -14514,13 +14514,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -14531,13 +14531,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -14552,29 +14552,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14989,22 +14989,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>19</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
@@ -15222,30 +15222,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -15256,13 +15256,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -15273,13 +15273,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -15294,29 +15294,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15718,22 +15718,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>16</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -15927,30 +15927,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -15961,13 +15961,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -15978,13 +15978,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -15999,29 +15999,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16438,22 +16438,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>17</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -16647,30 +16647,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -16681,13 +16681,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -16698,13 +16698,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -16719,29 +16719,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -17158,22 +17158,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>22</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
@@ -17431,30 +17431,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -17465,13 +17465,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -17482,13 +17482,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -17503,29 +17503,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -17942,22 +17942,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>18</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="59">
@@ -18165,30 +18165,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -18199,13 +18199,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -18216,13 +18216,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -18237,29 +18237,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18638,22 +18638,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>14</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -18847,30 +18847,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -18881,13 +18881,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -18898,13 +18898,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -18919,29 +18919,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -19358,22 +19358,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>19</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
@@ -19591,30 +19591,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -19625,13 +19625,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -19642,13 +19642,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -19663,29 +19663,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -20090,22 +20090,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>16</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -20299,30 +20299,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>346</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -20333,13 +20333,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -20350,13 +20350,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -20371,29 +20371,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -20796,22 +20796,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>16</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -21005,30 +21005,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -21039,13 +21039,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -21056,13 +21056,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -21077,29 +21077,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -21502,22 +21502,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>16</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -21711,30 +21711,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -21745,13 +21745,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -21762,13 +21762,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -21783,29 +21783,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -22208,22 +22208,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>16</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -22417,30 +22417,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -22451,13 +22451,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -22468,13 +22468,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -22489,29 +22489,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -22926,22 +22926,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>17</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -23135,30 +23135,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>222</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -23169,13 +23169,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -23186,13 +23186,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -23207,29 +23207,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -23632,22 +23632,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>16</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -23841,30 +23841,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -23875,13 +23875,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -23892,13 +23892,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -23913,29 +23913,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -24352,22 +24352,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>19</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
@@ -24551,8 +24551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24589,30 +24589,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>234</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -24623,13 +24623,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -24640,13 +24640,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -24661,29 +24661,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -25074,7 +25074,19 @@
       </c>
       <c r="R16" s="36"/>
     </row>
-    <row r="17" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="57">
+        <v>9</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="45"/>
       <c r="I17" s="43">
         <v>25</v>
@@ -25086,24 +25098,38 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>24</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
-    </row>
-    <row r="18" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="57">
+        <v>10</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="52">
+        <v>50</v>
+      </c>
+      <c r="F18" s="53"/>
+      <c r="G18" s="58"/>
       <c r="L18" s="44"/>
       <c r="M18" s="75">
         <v>25</v>
@@ -25122,7 +25148,21 @@
       </c>
       <c r="R18" s="77"/>
     </row>
-    <row r="19" spans="8:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="57">
+        <v>11</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="52">
+        <v>20</v>
+      </c>
+      <c r="F19" s="53"/>
+      <c r="G19" s="58"/>
       <c r="L19" s="44"/>
       <c r="M19" s="47">
         <v>7</v>
@@ -25141,7 +25181,21 @@
       </c>
       <c r="R19" s="36"/>
     </row>
-    <row r="20" spans="8:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="57">
+        <v>12</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="52">
+        <v>50</v>
+      </c>
+      <c r="F20" s="53"/>
+      <c r="G20" s="58"/>
       <c r="L20" s="44"/>
       <c r="M20" s="47">
         <v>3</v>
@@ -25160,7 +25214,21 @@
       </c>
       <c r="R20" s="34"/>
     </row>
-    <row r="21" spans="8:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="57">
+        <v>13</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="52">
+        <v>5</v>
+      </c>
+      <c r="F21" s="53"/>
+      <c r="G21" s="58"/>
       <c r="L21" s="44"/>
       <c r="M21" s="42">
         <v>5</v>
@@ -25179,7 +25247,19 @@
       </c>
       <c r="R21" s="34"/>
     </row>
-    <row r="22" spans="8:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="57">
+        <v>14</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="58"/>
       <c r="L22" s="44"/>
       <c r="M22" s="42">
         <v>23</v>
@@ -25198,7 +25278,19 @@
       </c>
       <c r="R22" s="34"/>
     </row>
-    <row r="23" spans="8:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="57">
+        <v>15</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="58"/>
       <c r="L23" s="44"/>
       <c r="M23" s="42">
         <v>2</v>
@@ -25217,7 +25309,19 @@
       </c>
       <c r="R23" s="34"/>
     </row>
-    <row r="24" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="59">
+        <v>16</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="62"/>
       <c r="L24" s="45"/>
       <c r="M24" s="43">
         <v>4</v>
@@ -25295,30 +25399,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>238</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -25329,13 +25433,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -25346,13 +25450,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -25367,29 +25471,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -25806,22 +25910,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>24</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
@@ -26061,10 +26165,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R24"/>
+  <dimension ref="B1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26101,30 +26205,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -26135,13 +26239,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -26152,13 +26256,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -26173,29 +26277,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -26610,24 +26714,36 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>26</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="57">
+        <v>10</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="58"/>
       <c r="L18" s="44"/>
       <c r="M18" s="75">
         <v>27</v>
@@ -26647,6 +26763,20 @@
       <c r="R18" s="77"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="57">
+        <v>11</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="52">
+        <v>100</v>
+      </c>
+      <c r="F19" s="53"/>
+      <c r="G19" s="58"/>
       <c r="L19" s="44"/>
       <c r="M19" s="47">
         <v>7</v>
@@ -26666,6 +26796,20 @@
       <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="57">
+        <v>12</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="52">
+        <v>20</v>
+      </c>
+      <c r="F20" s="53"/>
+      <c r="G20" s="58"/>
       <c r="L20" s="44"/>
       <c r="M20" s="47">
         <v>3</v>
@@ -26685,6 +26829,20 @@
       <c r="R20" s="34"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="57">
+        <v>13</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="52">
+        <v>255</v>
+      </c>
+      <c r="F21" s="53"/>
+      <c r="G21" s="58"/>
       <c r="L21" s="44"/>
       <c r="M21" s="42">
         <v>5</v>
@@ -26704,6 +26862,20 @@
       <c r="R21" s="34"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="57">
+        <v>14</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="52">
+        <v>5</v>
+      </c>
+      <c r="F22" s="53"/>
+      <c r="G22" s="58"/>
       <c r="L22" s="44"/>
       <c r="M22" s="42">
         <v>25</v>
@@ -26723,6 +26895,18 @@
       <c r="R22" s="34"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="57">
+        <v>15</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="58"/>
       <c r="L23" s="44"/>
       <c r="M23" s="42">
         <v>2</v>
@@ -26742,6 +26926,18 @@
       <c r="R23" s="34"/>
     </row>
     <row r="24" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="57">
+        <v>16</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="58"/>
       <c r="L24" s="45"/>
       <c r="M24" s="43">
         <v>4</v>
@@ -26759,6 +26955,34 @@
         <v>21</v>
       </c>
       <c r="R24" s="35"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="57">
+        <v>17</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="58"/>
+    </row>
+    <row r="26" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="59">
+        <v>18</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -26819,30 +27043,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -26853,13 +27077,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -26870,13 +27094,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -26891,29 +27115,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -27330,22 +27554,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>18</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="59">
@@ -27551,30 +27775,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -27585,13 +27809,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -27602,13 +27826,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -27623,29 +27847,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -28060,22 +28284,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>18</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="59">
@@ -28281,30 +28505,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -28315,13 +28539,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -28332,13 +28556,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -28353,29 +28577,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -28790,22 +29014,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>19</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
@@ -29025,30 +29249,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>267</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -29059,13 +29283,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -29076,13 +29300,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -29097,29 +29321,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -29534,22 +29758,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="112">
+      <c r="M17" s="131">
         <v>18</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="59">
@@ -29755,30 +29979,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -29789,13 +30013,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -29806,13 +30030,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -29827,29 +30051,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -30238,22 +30462,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="44"/>
-      <c r="M17" s="112">
+      <c r="M17" s="131">
         <v>15</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -30447,30 +30671,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -30481,13 +30705,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -30498,13 +30722,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -30519,29 +30743,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -30944,22 +31168,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="112">
+      <c r="M17" s="131">
         <v>16</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -31153,30 +31377,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>286</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -31187,13 +31411,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -31204,13 +31428,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -31225,29 +31449,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -31650,22 +31874,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="112">
+      <c r="M17" s="131">
         <v>16</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -31859,30 +32083,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>290</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -31893,13 +32117,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -31910,13 +32134,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -31931,29 +32155,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -32370,22 +32594,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="112">
+      <c r="M17" s="131">
         <v>17</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -32579,30 +32803,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>295</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>296</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -32613,13 +32837,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -32630,13 +32854,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -32651,29 +32875,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -33076,22 +33300,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="112">
+      <c r="M17" s="131">
         <v>16</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -33285,30 +33509,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>301</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>302</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -33319,13 +33543,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -33336,13 +33560,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -33357,29 +33581,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -33796,22 +34020,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="112">
+      <c r="M17" s="131">
         <v>17</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -34005,30 +34229,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>307</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>313</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -34039,13 +34263,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -34056,13 +34280,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -34077,29 +34301,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -34514,22 +34738,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="112">
+      <c r="M17" s="131">
         <v>18</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="59">
@@ -34735,30 +34959,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>314</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>321</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -34769,13 +34993,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -34786,13 +35010,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -34807,29 +35031,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -35192,22 +35416,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="112">
+      <c r="M17" s="131">
         <v>13</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -35401,30 +35625,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -35435,13 +35659,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -35452,13 +35676,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -35473,29 +35697,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -35898,22 +36122,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>16</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -36107,30 +36331,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>325</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>330</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -36141,13 +36365,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -36158,13 +36382,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -36179,29 +36403,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -36576,22 +36800,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="112">
+      <c r="M17" s="131">
         <v>14</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -36785,30 +37009,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>334</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>330</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -36819,13 +37043,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -36836,13 +37060,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -36857,29 +37081,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -37282,22 +37506,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="112">
+      <c r="M17" s="131">
         <v>16</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -37491,30 +37715,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>340</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>341</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -37525,13 +37749,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -37542,13 +37766,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -37563,29 +37787,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -37988,22 +38212,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="112">
+      <c r="M17" s="131">
         <v>16</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -38197,30 +38421,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>355</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>356</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -38231,13 +38455,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -38248,13 +38472,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -38269,29 +38493,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -38712,22 +38936,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="112">
+      <c r="M17" s="131">
         <v>32</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
@@ -39143,30 +39367,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>405</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>416</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -39177,13 +39401,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -39194,13 +39418,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -39215,29 +39439,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -39648,22 +39872,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="112">
+      <c r="M17" s="131">
         <v>33</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="95">
@@ -40091,30 +40315,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>410</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>415</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -40125,13 +40349,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -40142,13 +40366,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -40163,29 +40387,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -40600,22 +40824,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="44"/>
-      <c r="M17" s="112">
+      <c r="M17" s="131">
         <v>17</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H18" s="45"/>
@@ -40819,30 +41043,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>413</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>414</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -40853,13 +41077,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -40870,13 +41094,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -40891,29 +41115,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -41324,22 +41548,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="44"/>
-      <c r="M17" s="112">
+      <c r="M17" s="131">
         <v>19</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="95">
@@ -41531,8 +41755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41569,30 +41793,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>424</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>414</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -41603,13 +41827,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -41620,13 +41844,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -41641,29 +41865,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -42074,22 +42298,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="44"/>
-      <c r="M17" s="112">
+      <c r="M17" s="131">
         <v>30</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="95">
@@ -42471,30 +42695,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -42505,13 +42729,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -42522,13 +42746,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -42543,29 +42767,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -42980,22 +43204,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>17</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -43189,30 +43413,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -43223,13 +43447,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -43240,13 +43464,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -43261,29 +43485,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -43686,22 +43910,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>16</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
@@ -43895,30 +44119,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -43929,13 +44153,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -43946,13 +44170,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -43967,29 +44191,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -44404,22 +44628,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>22</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="57">
@@ -44673,30 +44897,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -44707,13 +44931,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -44724,13 +44948,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -44745,29 +44969,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -45182,22 +45406,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>18</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="59">
@@ -45403,30 +45627,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
@@ -45437,13 +45661,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="24" t="s">
         <v>440</v>
       </c>
@@ -45454,13 +45678,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="28" t="s">
         <v>441</v>
       </c>
@@ -45475,29 +45699,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -45912,22 +46136,22 @@
         <v>351</v>
       </c>
       <c r="L17" s="48"/>
-      <c r="M17" s="109">
+      <c r="M17" s="128">
         <v>17</v>
       </c>
-      <c r="N17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="110" t="s">
+      <c r="N17" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="111"/>
+      <c r="Q17" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>

--- a/Otorgamiento/Mapeos_CLS_Otorgamiento_V1.xlsx
+++ b/Otorgamiento/Mapeos_CLS_Otorgamiento_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="435" windowWidth="9225" windowHeight="4590" tabRatio="583" activeTab="46"/>
+    <workbookView xWindow="285" yWindow="435" windowWidth="9225" windowHeight="4590" tabRatio="583" firstSheet="43" activeTab="46"/>
   </bookViews>
   <sheets>
     <sheet name="BAS_ACTIVIDAD_ECONOMICA" sheetId="8" r:id="rId1"/>
@@ -8436,7 +8436,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6363" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6367" uniqueCount="452">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -9765,6 +9765,33 @@
   </si>
   <si>
     <t>integer</t>
+  </si>
+  <si>
+    <t>Validaciones Generales BAS_CIUDADES / 1. Búsqueda del correlativo</t>
+  </si>
+  <si>
+    <t>Validaciones Generales BAS_CIUDADES / 2. Búsqueda del id de la fuente</t>
+  </si>
+  <si>
+    <t>Validaciones Generales BAS_CIUDADES / 3. Búsqueda del id del esquema</t>
+  </si>
+  <si>
+    <t>Validaciones Generales DB_INF_PERSONA_NATURAL / 1. Búsqueda del correlativo</t>
+  </si>
+  <si>
+    <t>Validaciones Generales DB_INF_PERSONA_NATURAL / 2. Búsqueda del id de la fuente</t>
+  </si>
+  <si>
+    <t>Validaciones Generales DB_INF_PERSONA_NATURAL / 3. Búsqueda del id del esquema</t>
+  </si>
+  <si>
+    <t>Validaciones Generales DB_COMPL_PERSONA_NATURAL / 1. Búsqueda del correlativo</t>
+  </si>
+  <si>
+    <t>Validaciones Generales DB_COMPL_PERSONA_NATURAL / 2. Búsqueda del id de la fuente</t>
+  </si>
+  <si>
+    <t>Validaciones Generales DB_COMPL_PERSONA_NATURAL / 3. Búsqueda del id del esquema</t>
   </si>
 </sst>
 </file>
@@ -11463,7 +11490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -37681,7 +37708,7 @@
   <dimension ref="B1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:R17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38386,8 +38413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:R17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39011,7 +39038,9 @@
       </c>
       <c r="E19" s="52"/>
       <c r="F19" s="53"/>
-      <c r="G19" s="86"/>
+      <c r="G19" s="86" t="s">
+        <v>87</v>
+      </c>
       <c r="H19" s="45"/>
       <c r="I19" s="43">
         <v>35</v>
@@ -39332,8 +39361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40207,7 +40236,9 @@
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="96"/>
-      <c r="G28" s="97"/>
+      <c r="G28" s="97" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29" s="95">
@@ -40303,7 +40334,7 @@
   <dimension ref="B1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:R17"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40506,7 +40537,7 @@
         <v>32</v>
       </c>
       <c r="K9" s="63" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="L9" s="68"/>
       <c r="M9" s="46">
@@ -40585,7 +40616,9 @@
         <v>5</v>
       </c>
       <c r="F11" s="96"/>
-      <c r="G11" s="104"/>
+      <c r="G11" s="104" t="s">
+        <v>87</v>
+      </c>
       <c r="H11" s="44"/>
       <c r="I11" s="33">
         <v>12</v>
@@ -40637,7 +40670,7 @@
         <v>54</v>
       </c>
       <c r="K12" s="65" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="L12" s="68"/>
       <c r="M12" s="47">
@@ -40680,7 +40713,7 @@
         <v>55</v>
       </c>
       <c r="K13" s="66" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="L13" s="44"/>
       <c r="M13" s="47">
@@ -41031,7 +41064,7 @@
   <dimension ref="B1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41234,7 +41267,7 @@
         <v>32</v>
       </c>
       <c r="K9" s="63" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="L9" s="68"/>
       <c r="M9" s="46">
@@ -41361,7 +41394,7 @@
         <v>54</v>
       </c>
       <c r="K12" s="65" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="L12" s="68"/>
       <c r="M12" s="47">
@@ -41404,7 +41437,7 @@
         <v>55</v>
       </c>
       <c r="K13" s="66" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="L13" s="44"/>
       <c r="M13" s="47">
@@ -41522,7 +41555,9 @@
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="96"/>
-      <c r="G16" s="97"/>
+      <c r="G16" s="97" t="s">
+        <v>87</v>
+      </c>
       <c r="H16" s="48"/>
       <c r="I16" s="33">
         <v>19</v>
@@ -41782,8 +41817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41988,7 +42023,7 @@
         <v>32</v>
       </c>
       <c r="K9" s="63" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="L9" s="68"/>
       <c r="M9" s="46">
@@ -42115,7 +42150,7 @@
         <v>54</v>
       </c>
       <c r="K12" s="65" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="L12" s="68"/>
       <c r="M12" s="47">
@@ -42156,7 +42191,7 @@
         <v>55</v>
       </c>
       <c r="K13" s="66" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="L13" s="44"/>
       <c r="M13" s="47">

--- a/Otorgamiento/Mapeos_CLS_Otorgamiento_V1.xlsx
+++ b/Otorgamiento/Mapeos_CLS_Otorgamiento_V1.xlsx
@@ -8436,7 +8436,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6367" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6368" uniqueCount="452">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -11490,7 +11490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -41817,8 +41817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42533,7 +42533,9 @@
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="96"/>
-      <c r="G22" s="97"/>
+      <c r="G22" s="97" t="s">
+        <v>87</v>
+      </c>
       <c r="L22" s="44"/>
       <c r="M22" s="42">
         <v>29</v>

--- a/Otorgamiento/Mapeos_CLS_Otorgamiento_V1.xlsx
+++ b/Otorgamiento/Mapeos_CLS_Otorgamiento_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="435" windowWidth="9225" windowHeight="4590" tabRatio="583" firstSheet="43" activeTab="46"/>
+    <workbookView xWindow="285" yWindow="435" windowWidth="9225" windowHeight="4590" tabRatio="583" firstSheet="24" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="BAS_ACTIVIDAD_ECONOMICA" sheetId="8" r:id="rId1"/>
@@ -8436,7 +8436,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6368" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6336" uniqueCount="452">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -11490,7 +11490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -24590,7 +24590,7 @@
   <dimension ref="B1:R24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:R17"/>
+      <selection activeCell="B9" sqref="B9:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24784,7 +24784,7 @@
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="85"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="44"/>
       <c r="I9" s="88">
         <v>17</v>
@@ -24829,7 +24829,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="53"/>
-      <c r="G10" s="86"/>
+      <c r="G10" s="58"/>
       <c r="H10" s="44"/>
       <c r="I10" s="42">
         <v>18</v>
@@ -24872,7 +24872,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="53"/>
-      <c r="G11" s="86" t="s">
+      <c r="G11" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H11" s="44"/>
@@ -24917,7 +24917,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="53"/>
-      <c r="G12" s="86"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="44"/>
       <c r="I12" s="42">
         <v>20</v>
@@ -24960,7 +24960,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="53"/>
-      <c r="G13" s="86"/>
+      <c r="G13" s="58"/>
       <c r="H13" s="44"/>
       <c r="I13" s="42">
         <v>21</v>
@@ -25001,7 +25001,7 @@
       </c>
       <c r="E14" s="52"/>
       <c r="F14" s="53"/>
-      <c r="G14" s="86"/>
+      <c r="G14" s="58"/>
       <c r="H14" s="44"/>
       <c r="I14" s="42">
         <v>22</v>
@@ -25042,7 +25042,7 @@
       </c>
       <c r="E15" s="52"/>
       <c r="F15" s="53"/>
-      <c r="G15" s="86"/>
+      <c r="G15" s="58"/>
       <c r="H15" s="44"/>
       <c r="I15" s="42">
         <v>23</v>
@@ -25071,19 +25071,19 @@
       </c>
       <c r="R15" s="36"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="57">
+    <row r="16" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="59">
         <v>8</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="86"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="44"/>
       <c r="I16" s="42">
         <v>24</v>
@@ -25112,19 +25112,7 @@
       </c>
       <c r="R16" s="36"/>
     </row>
-    <row r="17" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="57">
-        <v>9</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="86"/>
+    <row r="17" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H17" s="45"/>
       <c r="I17" s="43">
         <v>25</v>
@@ -25153,21 +25141,7 @@
       </c>
       <c r="R17" s="111"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="57">
-        <v>10</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="52">
-        <v>50</v>
-      </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="58"/>
+    <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L18" s="44"/>
       <c r="M18" s="75">
         <v>25</v>
@@ -25186,21 +25160,7 @@
       </c>
       <c r="R18" s="77"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="57">
-        <v>11</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="52">
-        <v>20</v>
-      </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="58"/>
+    <row r="19" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L19" s="44"/>
       <c r="M19" s="47">
         <v>7</v>
@@ -25219,21 +25179,7 @@
       </c>
       <c r="R19" s="36"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="57">
-        <v>12</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="52">
-        <v>50</v>
-      </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="58"/>
+    <row r="20" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L20" s="44"/>
       <c r="M20" s="47">
         <v>3</v>
@@ -25252,21 +25198,7 @@
       </c>
       <c r="R20" s="34"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="57">
-        <v>13</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="52">
-        <v>5</v>
-      </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="58"/>
+    <row r="21" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L21" s="44"/>
       <c r="M21" s="42">
         <v>5</v>
@@ -25285,19 +25217,7 @@
       </c>
       <c r="R21" s="34"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="57">
-        <v>14</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="58"/>
+    <row r="22" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L22" s="44"/>
       <c r="M22" s="42">
         <v>23</v>
@@ -25316,19 +25236,7 @@
       </c>
       <c r="R22" s="34"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="57">
-        <v>15</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="58"/>
+    <row r="23" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L23" s="44"/>
       <c r="M23" s="42">
         <v>2</v>
@@ -25347,19 +25255,7 @@
       </c>
       <c r="R23" s="34"/>
     </row>
-    <row r="24" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="59">
-        <v>16</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="62"/>
+    <row r="24" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L24" s="45"/>
       <c r="M24" s="43">
         <v>4</v>
@@ -26203,10 +26099,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R25"/>
+  <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26729,20 +26625,20 @@
       <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="57">
+      <c r="B17" s="59">
         <v>9</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="60">
         <v>1</v>
       </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="58"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="45"/>
       <c r="I17" s="43">
         <v>27</v>
@@ -26772,18 +26668,6 @@
       <c r="R17" s="111"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="57">
-        <v>10</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="58"/>
       <c r="L18" s="44"/>
       <c r="M18" s="75">
         <v>27</v>
@@ -26803,20 +26687,6 @@
       <c r="R18" s="77"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="57">
-        <v>11</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="52">
-        <v>100</v>
-      </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="58"/>
       <c r="L19" s="44"/>
       <c r="M19" s="47">
         <v>7</v>
@@ -26836,20 +26706,6 @@
       <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="57">
-        <v>12</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="52">
-        <v>20</v>
-      </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="58"/>
       <c r="L20" s="44"/>
       <c r="M20" s="47">
         <v>3</v>
@@ -26869,20 +26725,6 @@
       <c r="R20" s="34"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="57">
-        <v>13</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="52">
-        <v>255</v>
-      </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="58"/>
       <c r="L21" s="44"/>
       <c r="M21" s="42">
         <v>5</v>
@@ -26902,20 +26744,6 @@
       <c r="R21" s="34"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="57">
-        <v>14</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="52">
-        <v>5</v>
-      </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="58"/>
       <c r="L22" s="44"/>
       <c r="M22" s="42">
         <v>25</v>
@@ -26935,18 +26763,6 @@
       <c r="R22" s="34"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="57">
-        <v>15</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="58"/>
       <c r="L23" s="44"/>
       <c r="M23" s="42">
         <v>2</v>
@@ -26966,18 +26782,6 @@
       <c r="R23" s="34"/>
     </row>
     <row r="24" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="57">
-        <v>16</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="58"/>
       <c r="L24" s="45"/>
       <c r="M24" s="43">
         <v>4</v>
@@ -26995,20 +26799,6 @@
         <v>21</v>
       </c>
       <c r="R24" s="35"/>
-    </row>
-    <row r="25" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="59">
-        <v>17</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -41817,8 +41607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Otorgamiento/Mapeos_CLS_Otorgamiento_V1.xlsx
+++ b/Otorgamiento/Mapeos_CLS_Otorgamiento_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="435" windowWidth="9225" windowHeight="4590" tabRatio="583" firstSheet="24" activeTab="27"/>
+    <workbookView xWindow="285" yWindow="435" windowWidth="9225" windowHeight="4590" tabRatio="583" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="BAS_ACTIVIDAD_ECONOMICA" sheetId="8" r:id="rId1"/>
@@ -8436,7 +8436,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6336" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6334" uniqueCount="455">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -9792,6 +9792,15 @@
   </si>
   <si>
     <t>Validaciones Generales DB_COMPL_PERSONA_NATURAL / 3. Búsqueda del id del esquema</t>
+  </si>
+  <si>
+    <t>Validaciones Generales BAS_GARANTIAS /1. Búsqueda del correlativo</t>
+  </si>
+  <si>
+    <t>Validaciones Generales BAS_GARANTIAS /2. Búsqueda del id de la fuente</t>
+  </si>
+  <si>
+    <t>Validaciones Generales BAS_GARANTIAS /3. Búsqueda del id del esquema</t>
   </si>
 </sst>
 </file>
@@ -11490,7 +11499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -26101,7 +26110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:G17"/>
     </sheetView>
   </sheetViews>
@@ -43939,8 +43948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:R17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -44134,18 +44143,18 @@
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="44"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="48"/>
       <c r="I9" s="88">
         <v>15</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="80"/>
+      <c r="K9" s="63" t="s">
+        <v>452</v>
+      </c>
+      <c r="L9" s="68"/>
       <c r="M9" s="46">
         <v>15</v>
       </c>
@@ -44179,18 +44188,18 @@
         <v>100</v>
       </c>
       <c r="F10" s="53"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="44"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="48"/>
       <c r="I10" s="42">
         <v>16</v>
       </c>
       <c r="J10" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="80"/>
+      <c r="L10" s="68"/>
       <c r="M10" s="42">
         <v>16</v>
       </c>
@@ -44222,20 +44231,20 @@
         <v>20</v>
       </c>
       <c r="F11" s="53"/>
-      <c r="G11" s="86" t="s">
+      <c r="G11" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="44"/>
+      <c r="H11" s="48"/>
       <c r="I11" s="42">
         <v>17</v>
       </c>
       <c r="J11" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="80"/>
+      <c r="L11" s="68"/>
       <c r="M11" s="42">
         <v>17</v>
       </c>
@@ -44267,18 +44276,18 @@
         <v>255</v>
       </c>
       <c r="F12" s="53"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="44"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="48"/>
       <c r="I12" s="42">
         <v>18</v>
       </c>
       <c r="J12" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="L12" s="80"/>
+      <c r="K12" s="65" t="s">
+        <v>453</v>
+      </c>
+      <c r="L12" s="68"/>
       <c r="M12" s="47">
         <v>18</v>
       </c>
@@ -44310,18 +44319,18 @@
         <v>20</v>
       </c>
       <c r="F13" s="53"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="44"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="48"/>
       <c r="I13" s="42">
         <v>19</v>
       </c>
       <c r="J13" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" s="48"/>
+      <c r="K13" s="66" t="s">
+        <v>454</v>
+      </c>
+      <c r="L13" s="44"/>
       <c r="M13" s="47">
         <v>19</v>
       </c>
@@ -44351,18 +44360,18 @@
       </c>
       <c r="E14" s="52"/>
       <c r="F14" s="53"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="44"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="48"/>
       <c r="I14" s="42">
         <v>20</v>
       </c>
       <c r="J14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="82" t="s">
+      <c r="K14" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="48"/>
+      <c r="L14" s="44"/>
       <c r="M14" s="47">
         <v>20</v>
       </c>
@@ -44392,18 +44401,18 @@
       </c>
       <c r="E15" s="52"/>
       <c r="F15" s="53"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="44"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="48"/>
       <c r="I15" s="42">
-        <v>21</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="K15" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="48"/>
+        <v>22</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="K15" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="L15" s="44"/>
       <c r="M15" s="47">
         <v>20</v>
       </c>
@@ -44421,7 +44430,7 @@
       </c>
       <c r="R15" s="36"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="57">
         <v>8</v>
       </c>
@@ -44433,18 +44442,18 @@
       </c>
       <c r="E16" s="52"/>
       <c r="F16" s="53"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="42">
-        <v>22</v>
-      </c>
-      <c r="J16" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="K16" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="L16" s="48"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="43">
+        <v>23</v>
+      </c>
+      <c r="J16" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="K16" s="67" t="s">
+        <v>351</v>
+      </c>
+      <c r="L16" s="44"/>
       <c r="M16" s="47">
         <v>20</v>
       </c>
@@ -44462,7 +44471,7 @@
       </c>
       <c r="R16" s="36"/>
     </row>
-    <row r="17" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="57">
         <v>9</v>
       </c>
@@ -44474,18 +44483,8 @@
       </c>
       <c r="E17" s="52"/>
       <c r="F17" s="53"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="43">
-        <v>23</v>
-      </c>
-      <c r="J17" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="K17" s="84" t="s">
-        <v>351</v>
-      </c>
-      <c r="L17" s="48"/>
+      <c r="G17" s="58"/>
+      <c r="L17" s="44"/>
       <c r="M17" s="109">
         <v>22</v>
       </c>
@@ -44642,7 +44641,7 @@
       <c r="G22" s="62"/>
       <c r="L22" s="44"/>
       <c r="M22" s="42">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N22" s="31" t="s">
         <v>56</v>
